--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-sig-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-sig-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-sig-req-3:The valueQuantity element is required and must be provided. {valueQuantity.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -860,7 +860,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -949,8 +949,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$74</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing loss of heterozygosity for a cancer patient. 
-This profile extends the GenomicsReporting IG [GenomicsBase profile](http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/genomics-base) to include specific constraints and extensions relevant to Onconova.</t>
+    <t xml:space="preserve">A profile representing loss of heterozygosity for a cancer patient. 
+This profile extends the GenomicsReporting IG [GenomicsBase profile](http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/genomics-base) to include specific constraints and extensions relevant to Onconova.
+**Conformance:**
+Observation resources representing a loss of heterozygosity obtained through genomic testing in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -112,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/genomics-base|2.0.0</t>
+    <t>http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/genomics-base</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -378,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -469,7 +474,7 @@
     <t>secondary-finding</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {observation-secondaryFinding|5.2.0}
+    <t xml:space="preserve">Extension {observation-secondaryFinding}
 </t>
   </si>
   <si>
@@ -493,7 +498,7 @@
     <t>body-structure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {bodySite|5.2.0}
+    <t xml:space="preserve">Extension {bodySite}
 </t>
   </si>
   <si>
@@ -561,7 +566,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -590,7 +595,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -615,19 +620,13 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -676,7 +675,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding}
@@ -836,7 +835,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -860,11 +859,11 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
+    <t>The cancer patient associated with this signature</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -891,14 +890,8 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
@@ -914,14 +907,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
@@ -984,12 +971,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
@@ -1005,14 +986,8 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
 </t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -1221,7 +1196,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1238,9 +1213,6 @@
 </t>
   </si>
   <si>
-    <t>Not used in this profile</t>
-  </si>
-  <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
   </si>
   <si>
@@ -1250,7 +1222,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1268,7 +1240,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/coded-annotation|2.0.0}
+    <t xml:space="preserve">Annotation {http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/coded-annotation}
 </t>
   </si>
   <si>
@@ -1292,12 +1264,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
@@ -1305,7 +1271,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1338,7 +1304,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1350,16 +1316,10 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
@@ -1378,14 +1338,8 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -1410,12 +1364,6 @@
 </t>
   </si>
   <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
   </si>
   <si>
@@ -1458,7 +1406,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1508,7 +1456,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1541,7 +1489,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1578,16 +1526,10 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
@@ -1600,7 +1542,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1617,12 +1559,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1895,6 +1831,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2090,7 +2041,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2105,7 +2056,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.2890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2251,7 +2202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2371,7 +2322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>91</v>
       </c>
@@ -2491,7 +2442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>99</v>
       </c>
@@ -2609,7 +2560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>105</v>
       </c>
@@ -2729,7 +2680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>111</v>
       </c>
@@ -2849,7 +2800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -2969,7 +2920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>128</v>
       </c>
@@ -3089,7 +3040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>136</v>
       </c>
@@ -3205,7 +3156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>144</v>
       </c>
@@ -3325,7 +3276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -3445,7 +3396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3567,7 +3518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
@@ -3687,7 +3638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
@@ -3807,7 +3758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>180</v>
       </c>
@@ -3927,7 +3878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>189</v>
       </c>
@@ -3961,13 +3912,13 @@
         <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3977,28 +3928,28 @@
         <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -4031,30 +3982,30 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AO16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4077,19 +4028,19 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4117,19 +4068,19 @@
         <v>116</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
@@ -4138,7 +4089,7 @@
         <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4162,24 +4113,24 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="B18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>20</v>
@@ -4201,19 +4152,19 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4241,10 +4192,10 @@
         <v>116</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4262,7 +4213,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4286,21 +4237,21 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4323,13 +4274,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4380,7 +4331,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4404,21 +4355,21 @@
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4444,10 +4395,10 @@
         <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>159</v>
@@ -4491,7 +4442,7 @@
         <v>140</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
@@ -4500,7 +4451,7 @@
         <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4524,7 +4475,7 @@
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>20</v>
@@ -4533,12 +4484,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4561,19 +4512,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4583,7 +4534,7 @@
         <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>20</v>
@@ -4622,7 +4573,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4643,24 +4594,24 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4683,19 +4634,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4744,7 +4695,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4765,28 +4716,28 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4805,19 +4756,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4827,29 +4778,29 @@
         <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4866,7 +4817,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>92</v>
@@ -4881,30 +4832,30 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4912,13 +4863,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -4927,19 +4878,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4988,7 +4939,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5003,30 +4954,30 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AO24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5049,16 +5000,16 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5108,7 +5059,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5129,28 +5080,28 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5169,19 +5120,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5230,7 +5181,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5245,19 +5196,19 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5265,24 +5216,24 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -5291,19 +5242,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5352,7 +5303,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5367,30 +5318,30 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5413,16 +5364,16 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5472,7 +5423,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5493,24 +5444,24 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5533,17 +5484,17 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5592,7 +5543,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5607,30 +5558,30 @@
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5653,19 +5604,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5714,7 +5665,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5723,7 +5674,7 @@
         <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>104</v>
@@ -5732,27 +5683,27 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5775,13 +5726,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5832,7 +5783,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5856,7 +5807,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5865,12 +5816,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5896,10 +5847,10 @@
         <v>137</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>159</v>
@@ -5943,7 +5894,7 @@
         <v>140</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
@@ -5952,7 +5903,7 @@
         <v>141</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5976,7 +5927,7 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5985,12 +5936,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6013,19 +5964,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6074,7 +6025,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6095,10 +6046,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6107,12 +6058,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6138,20 +6089,20 @@
         <v>112</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q34" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>20</v>
@@ -6172,13 +6123,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -6196,7 +6147,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6217,10 +6168,10 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6229,12 +6180,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6257,17 +6208,17 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6316,7 +6267,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6337,10 +6288,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6349,12 +6300,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6380,14 +6331,14 @@
         <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6397,7 +6348,7 @@
         <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>20</v>
@@ -6436,7 +6387,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6445,7 +6396,7 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>104</v>
@@ -6457,24 +6408,24 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="B37" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6500,16 +6451,16 @@
         <v>112</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6519,7 +6470,7 @@
         <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>20</v>
@@ -6558,7 +6509,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6579,10 +6530,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6591,12 +6542,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6619,19 +6570,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6656,13 +6607,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6680,7 +6631,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6689,7 +6640,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6704,7 +6655,7 @@
         <v>135</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6713,16 +6664,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6741,19 +6692,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>388</v>
+        <v>190</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>388</v>
+        <v>190</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6778,14 +6729,14 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6802,7 +6753,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6820,27 +6771,27 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6863,19 +6814,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6924,7 +6875,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6948,7 +6899,7 @@
         <v>135</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6957,12 +6908,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6985,16 +6936,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>190</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>406</v>
+        <v>190</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7020,13 +6971,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -7044,7 +6995,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7062,27 +7013,27 @@
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7105,19 +7056,19 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7142,13 +7093,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -7166,7 +7117,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7187,10 +7138,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7199,12 +7150,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7227,16 +7178,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>425</v>
+        <v>190</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7286,7 +7237,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7304,27 +7255,27 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7347,16 +7298,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>434</v>
+        <v>190</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>435</v>
+        <v>190</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7406,7 +7357,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7424,27 +7375,27 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7467,19 +7418,19 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>443</v>
+        <v>190</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>444</v>
+        <v>190</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7528,7 +7479,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7540,7 +7491,7 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7549,10 +7500,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7561,12 +7512,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7589,13 +7540,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7646,7 +7597,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7670,7 +7621,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7679,12 +7630,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7710,10 +7661,10 @@
         <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>159</v>
@@ -7766,7 +7717,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7790,7 +7741,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7799,16 +7750,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7830,10 +7781,10 @@
         <v>137</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>159</v>
@@ -7888,7 +7839,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7921,12 +7872,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7949,13 +7900,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8006,7 +7957,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8015,7 +7966,7 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>104</v>
@@ -8027,10 +7978,10 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -8039,12 +7990,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8067,13 +8018,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8124,7 +8075,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8133,7 +8084,7 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>104</v>
@@ -8145,10 +8096,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8157,12 +8108,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8185,19 +8136,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8225,10 +8176,10 @@
         <v>116</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -8246,7 +8197,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8264,13 +8215,13 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8279,12 +8230,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8307,19 +8258,19 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8344,13 +8295,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8368,7 +8319,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8386,13 +8337,13 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8401,12 +8352,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8429,17 +8380,17 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8488,7 +8439,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8512,7 +8463,7 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8521,12 +8472,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8549,13 +8500,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8606,7 +8557,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8627,10 +8578,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8639,12 +8590,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8667,16 +8618,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>496</v>
+        <v>190</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>497</v>
+        <v>190</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8726,7 +8677,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8747,10 +8698,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8759,12 +8710,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8787,16 +8738,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8846,7 +8797,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8867,10 +8818,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8879,12 +8830,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8907,19 +8858,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>508</v>
+        <v>190</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>509</v>
+        <v>190</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8956,10 +8907,10 @@
         <v>20</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>20</v>
@@ -8968,7 +8919,7 @@
         <v>141</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8989,10 +8940,10 @@
         <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -9001,12 +8952,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9029,13 +8980,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9086,7 +9037,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9110,7 +9061,7 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -9119,12 +9070,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9150,10 +9101,10 @@
         <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>159</v>
@@ -9206,7 +9157,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9230,7 +9181,7 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9239,16 +9190,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9270,10 +9221,10 @@
         <v>137</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>159</v>
@@ -9328,7 +9279,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9361,12 +9312,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9389,19 +9340,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9426,14 +9377,14 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9450,7 +9401,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9468,27 +9419,27 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AN61" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AP61" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9511,19 +9462,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9572,7 +9523,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9590,27 +9541,27 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9633,19 +9584,19 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9670,13 +9621,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -9694,7 +9645,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9703,7 +9654,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>104</v>
@@ -9718,7 +9669,7 @@
         <v>135</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9727,16 +9678,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9755,19 +9706,19 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9792,14 +9743,14 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9816,7 +9767,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9834,27 +9785,27 @@
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9880,16 +9831,16 @@
         <v>82</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9938,7 +9889,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9959,10 +9910,10 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -9971,15 +9922,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>20</v>
@@ -10001,19 +9952,19 @@
         <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10062,7 +10013,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10083,10 +10034,10 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10095,12 +10046,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10123,13 +10074,13 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10180,7 +10131,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10204,7 +10155,7 @@
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10213,12 +10164,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10244,10 +10195,10 @@
         <v>137</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>159</v>
@@ -10300,7 +10251,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10324,7 +10275,7 @@
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10333,16 +10284,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10364,10 +10315,10 @@
         <v>137</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>159</v>
@@ -10422,7 +10373,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10455,12 +10406,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10483,19 +10434,19 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10505,7 +10456,7 @@
         <v>20</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>20</v>
@@ -10520,14 +10471,14 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
       </c>
@@ -10544,7 +10495,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>92</v>
@@ -10562,27 +10513,27 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AN70" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AP70" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10605,19 +10556,19 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10666,7 +10617,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10684,27 +10635,27 @@
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10727,19 +10678,19 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10764,13 +10715,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10788,7 +10739,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10797,7 +10748,7 @@
         <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>104</v>
@@ -10812,7 +10763,7 @@
         <v>135</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
@@ -10821,16 +10772,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10849,19 +10800,19 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10886,14 +10837,14 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
       </c>
@@ -10910,7 +10861,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10928,27 +10879,27 @@
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10974,16 +10925,16 @@
         <v>82</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11032,7 +10983,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11053,10 +11004,10 @@
         <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11066,6 +11017,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP74">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="27">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI73">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-sig-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-sig-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-sig-req-3:The valueQuantity element is required and must be provided. {valueQuantity.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-sig-req-1:The subject element is required and must be provided. {subject.exists()}o-sig-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-sig-req-3:The valueQuantity element is required and must be provided. {valueQuantity.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
+++ b/StructureDefinition-onconova-loss-of-heterozygosity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
